--- a/raw/template.xlsx
+++ b/raw/template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr codeName="현재_통합_문서"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUC\Documents\AlipayProject\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\양안건\PycharmProjects\AlipayProject\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FF4B8-8189-436B-A2C8-4A0D32F6353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1410" windowWidth="41580" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1410" windowWidth="41580" windowHeight="14910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="STORE_LIST" sheetId="3" r:id="rId1"/>
     <sheet name="DG_LIST" sheetId="4" r:id="rId2"/>
+    <sheet name="售后退款" sheetId="5" r:id="rId3"/>
+    <sheet name="淘宝客" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
   <si>
     <t>수수료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,11 +176,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -325,14 +326,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,7 +344,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,13 +359,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,7 +374,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,483 +389,496 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
+  <dxfs count="152">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -883,13 +897,6 @@
         <sz val="9"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -980,6 +987,37 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1009,50 +1047,50 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1285,96 +1323,1145 @@
         <vertAlign val="baseline"/>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Noto Sans CJK KR Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Noto Sans CJK KR Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1489,52 +2576,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" name="No." dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>SUBTOTAL(103,$D$9:D9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="오더 확정 시간" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Partner_transaction_id" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction_id" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Amount" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rmb_amount" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fee" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Refund" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Settlement" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rmb_settlement" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Currency" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Rate" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Payment_time" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Settlement_time" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Type" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="비고" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="15" name="오더 확정 시간" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="2" name="Partner_transaction_id" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="3" name="Transaction_id" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="4" name="Amount" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="5" name="Rmb_amount" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="6" name="Fee" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="7" name="Refund" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="8" name="Settlement" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="9" name="Rmb_settlement" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="10" name="Currency" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="11" name="Rate" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="12" name="Payment_time" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="13" name="Settlement_time" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="14" name="Type" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="16" name="비고" dataDxfId="115" totalsRowDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43A28CFC-09DC-40E5-BF87-707ADC9DE80C}" name="표1_3" displayName="표1_3" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{CC0B75A0-793A-4096-9F7C-2F6C2B420524}" name="No." dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" name="No." dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula>SUBTOTAL(103,$C$9:C9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D8A17710-E8D0-4983-81A7-583C7C50C24D}" name="Partner_transaction_id" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{7E5CE347-C283-4AFE-B9A2-5E1F5771F3E2}" name="Transaction_id" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{2945FDD6-139C-493F-9F7A-793D40EBC172}" name="Amount" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{0AF47C1D-4DE6-4D48-BC04-CD7FD9A07406}" name="Rmb_amount" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{BB8744FF-6388-43D9-87E9-E5FDBBA4134C}" name="Fee" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{75B57791-5633-42FC-AE2D-A0996AD52B5C}" name="Refund" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2F1939F9-0546-49C5-B21E-9B674839B2C4}" name="Settlement" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{F401F184-9AA1-44EE-A8B7-FA6153298B94}" name="Rmb_settlement" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{4EC00C10-8D4B-4A0F-AD49-9BC6044DD332}" name="Currency" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{973E2421-45F1-432A-9DBD-71AD4C401A2E}" name="Rate" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{122E26A5-5AF7-41F7-A717-BC4DD29DFC9B}" name="Payment_time" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{EE6E032B-F7A9-4A49-A3A4-BF9A04C9D7BA}" name="Settlement_time" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{DB84D596-6143-4958-9E83-A016361D5BB4}" name="Type" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{18E83DA4-9404-43E4-ABB0-214B03824741}" name="오더 확정 시간" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{4F03ADD8-D6A3-4B86-AB60-626A450895B5}" name="비고" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Partner_transaction_id" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="3" name="Transaction_id" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="4" name="Amount" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" name="Rmb_amount" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="6" name="Fee" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="7" name="Refund" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="8" name="Settlement" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="9" name="Rmb_settlement" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="10" name="Currency" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="11" name="Rate" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="12" name="Payment_time" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="13" name="Settlement_time" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="14" name="Type" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="15" name="오더 확정 시간" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="16" name="비고" dataDxfId="77" totalsRowDxfId="76"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_34" displayName="표1_34" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
+  <tableColumns count="16">
+    <tableColumn id="1" name="No." dataDxfId="69" totalsRowDxfId="68">
+      <calculatedColumnFormula>SUBTOTAL(103,$C$9:C9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Partner_transaction_id" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" name="Transaction_id" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="4" name="Amount" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="5" name="Rmb_amount" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" name="Fee" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="7" name="Refund" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" name="Settlement" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="9" name="Rmb_settlement" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="10" name="Currency" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="11" name="Rate" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="12" name="Payment_time" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="13" name="Settlement_time" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="14" name="Type" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="15" name="오더 확정 시간" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="16" name="비고" dataDxfId="39" totalsRowDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_345" displayName="표1_345" ref="B8:Q9" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33">
+  <tableColumns count="16">
+    <tableColumn id="1" name="No." dataDxfId="30" totalsRowDxfId="31">
+      <calculatedColumnFormula>SUBTOTAL(103,$C$9:C9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Partner_transaction_id" dataDxfId="28" totalsRowDxfId="29"/>
+    <tableColumn id="3" name="Transaction_id" dataDxfId="26" totalsRowDxfId="27"/>
+    <tableColumn id="4" name="Amount" dataDxfId="24" totalsRowDxfId="25"/>
+    <tableColumn id="5" name="Rmb_amount" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="Fee" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="Refund" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Settlement" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="9" name="Rmb_settlement" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="10" name="Currency" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Rate" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="12" name="Payment_time" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="13" name="Settlement_time" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="14" name="Type" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="15" name="오더 확정 시간" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="16" name="비고" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1802,12 +2941,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1830,14 +2967,14 @@
     <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25.5">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:17" ht="33.75">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="9" customHeight="1">
       <c r="B3" s="1"/>
@@ -1879,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" ht="18.75">
       <c r="I6" s="16" t="s">
         <v>34</v>
       </c>
@@ -1887,7 +3024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" ht="18.75">
       <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
@@ -2005,10 +3142,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2019,11 +3156,226 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE39B7-B595-43E9-B2DC-ABEAED1F4FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="33.75">
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:17" ht="9" customHeight="1">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" ht="25.5" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="40.5" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="e">
+        <f>표1_3[[#Totals],[Settlement]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <f>C5*E5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1430</v>
+      </c>
+      <c r="F5" s="12">
+        <f>MAX(표1_3[No.])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="18.75">
+      <c r="I6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="18.75">
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="21.95" customHeight="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="113" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="duplicateValues" dxfId="112" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2047,13 +3399,17 @@
     <col min="17" max="17" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25.5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:17" ht="33.75">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="9" customHeight="1">
-      <c r="B3" s="1"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="2:17" ht="25.5" customHeight="1">
       <c r="B4" s="7" t="s">
@@ -2077,7 +3433,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="9" t="e">
-        <f>표1_3[[#Totals],[Settlement]]</f>
+        <f>표1_34[[#Totals],[Settlement]]</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="10" t="e">
@@ -2088,11 +3444,11 @@
         <v>1430</v>
       </c>
       <c r="F5" s="12">
-        <f>MAX(표1_3[No.])</f>
+        <f>MAX(표1_34[No.])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" ht="18.75">
       <c r="I6" s="16" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +3456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" ht="18.75">
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
@@ -2213,6 +3569,224 @@
       <c r="Q9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="33.75">
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:17" ht="9" customHeight="1">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="25.5" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="40.5" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="e">
+        <f>표1_345[[#Totals],[Settlement]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <f>C5*E5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1430</v>
+      </c>
+      <c r="F5" s="12">
+        <f>MAX(표1_345[No.])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="18.75">
+      <c r="I6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="18.75">
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="21.95" customHeight="1" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="21.95" customHeight="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C8">
     <cfRule type="duplicateValues" dxfId="37" priority="2"/>
